--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2379.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2379.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.325606070266812</v>
+        <v>0.9206383228302002</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.732064127922058</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.115060329437256</v>
       </c>
       <c r="D1">
-        <v>1.125515745053157</v>
+        <v>3.59550952911377</v>
       </c>
       <c r="E1">
-        <v>0.8294779837645784</v>
+        <v>0.3812944889068604</v>
       </c>
     </row>
   </sheetData>
